--- a/analysis/analisiFattoriale-tmkX/Analisi Fattoriale 5 fattori 30 ripetizioni lognormal.xlsx
+++ b/analysis/analisiFattoriale-tmkX/Analisi Fattoriale 5 fattori 30 ripetizioni lognormal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaia\Documents\GitHub\PECSNproject\analysis\analisiFattoriale-tmkX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo Poggiani\Documents\GitHub\PECSNproject\analysis\analisiFattoriale-tmkX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63090C73-512E-4099-BC0D-926260053C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD54809-FF07-485E-83AF-8C27975D96BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53939FEB-449D-4043-99E8-6814644AB238}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="10044" activeTab="1" xr2:uid="{53939FEB-449D-4043-99E8-6814644AB238}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,7 +498,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -565,7 +565,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -635,6 +635,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E001-47CF-A271-ECFDC5E583CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -655,6 +660,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E001-47CF-A271-ECFDC5E583CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -675,6 +685,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E001-47CF-A271-ECFDC5E583CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -695,6 +710,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E001-47CF-A271-ECFDC5E583CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -715,6 +735,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E001-47CF-A271-ECFDC5E583CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -743,7 +768,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -871,7 +896,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -908,7 +933,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -922,7 +947,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -959,7 +984,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6856,7 +6881,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="907745472"/>
@@ -6918,7 +6943,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1183907408"/>
@@ -6966,7 +6991,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6980,7 +7005,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7017,7 +7042,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7124,7 +7149,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -12980,7 +13005,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="895278416"/>
@@ -13042,7 +13067,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1053916800"/>
@@ -13084,7 +13109,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13121,7 +13146,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14926,7 +14951,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15224,7 +15249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3055446E-0325-48AA-BA41-306F257717B3}">
   <dimension ref="A1:CR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
@@ -27339,7 +27364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2659474B-D8A9-4F12-8A1D-367A98E9BEEE}">
   <dimension ref="A1:Q961"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>

--- a/analysis/analisiFattoriale-tmkX/Analisi Fattoriale 5 fattori 30 ripetizioni lognormal.xlsx
+++ b/analysis/analisiFattoriale-tmkX/Analisi Fattoriale 5 fattori 30 ripetizioni lognormal.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo Poggiani\Documents\GitHub\PECSNproject\analysis\analisiFattoriale-tmkX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaiaa\Documents\GitHub\PECSNproject\analysis\analisiFattoriale-tmkX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD54809-FF07-485E-83AF-8C27975D96BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DC4092-0254-47E2-9B61-ACC978B2BDE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="10044" activeTab="1" xr2:uid="{53939FEB-449D-4043-99E8-6814644AB238}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53939FEB-449D-4043-99E8-6814644AB238}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Assumptions validation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="129">
   <si>
     <t>I</t>
   </si>
@@ -426,6 +426,24 @@
   <si>
     <t>lognormal</t>
   </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>[-0,03; 0,03]</t>
+  </si>
+  <si>
+    <t>[0,16; 0,23]</t>
+  </si>
+  <si>
+    <t>[-0,11; -0,05]</t>
+  </si>
+  <si>
+    <t>[-0,04; 0,02]</t>
+  </si>
+  <si>
+    <t>[0,5; 0,56]</t>
+  </si>
 </sst>
 </file>
 
@@ -480,7 +498,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,7 +516,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -565,7 +583,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -768,7 +786,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -799,7 +817,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$48:$G$48</c:f>
+              <c:f>Analysis!$C$48:$G$48</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -822,7 +840,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$49:$G$49</c:f>
+              <c:f>Analysis!$C$49:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -896,7 +914,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -933,7 +951,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -947,7 +965,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -984,7 +1002,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -999,7 +1017,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio2!$B$1</c:f>
+              <c:f>'Assumptions validation'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1032,7 +1050,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio2!$A$2:$A$961</c:f>
+              <c:f>'Assumptions validation'!$A$2:$A$961</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="960"/>
@@ -3921,7 +3939,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio2!$B$2:$B$961</c:f>
+              <c:f>'Assumptions validation'!$B$2:$B$961</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="960"/>
@@ -6881,7 +6899,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="907745472"/>
@@ -6943,7 +6961,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1183907408"/>
@@ -6991,7 +7009,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7005,7 +7023,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7042,7 +7060,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7057,7 +7075,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio2!$P$1</c:f>
+              <c:f>'Assumptions validation'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7149,14 +7167,14 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="it-IT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio2!$O$2:$O$961</c:f>
+              <c:f>'Assumptions validation'!$O$2:$O$961</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="960"/>
@@ -10045,7 +10063,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio2!$P$2:$P$961</c:f>
+              <c:f>'Assumptions validation'!$P$2:$P$961</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="960"/>
@@ -13005,7 +13023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="895278416"/>
@@ -13067,7 +13085,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1053916800"/>
@@ -13109,7 +13127,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13146,7 +13164,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14833,15 +14851,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14866,6 +14884,178 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="188065" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CasellaDiTesto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95EC3007-AF33-47B6-8AB0-D89C60FAE35B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="63916136" y="7440718"/>
+              <a:ext cx="188065" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="1100">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑒</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="1100" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CasellaDiTesto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95EC3007-AF33-47B6-8AB0-D89C60FAE35B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="63916136" y="7440718"/>
+              <a:ext cx="188065" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑒^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14951,7 +15141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15249,14 +15439,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3055446E-0325-48AA-BA41-306F257717B3}">
   <dimension ref="A1:CR49"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="V48" sqref="V48"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="21" max="22" width="11.5546875" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" customWidth="1"/>
+    <col min="25" max="25" width="12.44140625" customWidth="1"/>
+    <col min="26" max="26" width="12.109375" customWidth="1"/>
+    <col min="27" max="27" width="11" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" customWidth="1"/>
+    <col min="29" max="30" width="10.6640625" customWidth="1"/>
+    <col min="31" max="32" width="11.44140625" customWidth="1"/>
+    <col min="33" max="33" width="11.77734375" customWidth="1"/>
+    <col min="34" max="34" width="11.44140625" customWidth="1"/>
     <col min="60" max="65" width="9" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="12" bestFit="1" customWidth="1"/>
     <col min="67" max="69" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -27301,6 +27517,130 @@
       </c>
     </row>
     <row r="40" spans="2:96" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <f>D37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1542907523764388E-2</v>
+      </c>
+      <c r="E40">
+        <f>E37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.5655706641307697E-2</v>
+      </c>
+      <c r="F40">
+        <f>F37-1.645*SQRT(CQ42/40)</f>
+        <v>0.16163976954154213</v>
+      </c>
+      <c r="G40">
+        <f>G37-1.645*SQRT(CQ42/40)</f>
+        <v>-0.11538510577173883</v>
+      </c>
+      <c r="H40">
+        <f>H37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.2378160773817659E-2</v>
+      </c>
+      <c r="I40">
+        <f>I37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1185213905114417E-2</v>
+      </c>
+      <c r="J40">
+        <f>J37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1491157249949664E-2</v>
+      </c>
+      <c r="K40">
+        <f>K37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.325337614646065E-2</v>
+      </c>
+      <c r="L40">
+        <f>L37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.0954000777955577E-2</v>
+      </c>
+      <c r="M40">
+        <f>M37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.287276771887096E-2</v>
+      </c>
+      <c r="N40">
+        <f>N37-1.645*SQRT(CQ42/40)</f>
+        <v>-4.1921772098545876E-2</v>
+      </c>
+      <c r="O40">
+        <f>O37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1476311637643542E-2</v>
+      </c>
+      <c r="P40">
+        <f>P37-1.645*SQRT(CQ42/40)</f>
+        <v>-0.11416634405919654</v>
+      </c>
+      <c r="Q40">
+        <f>Q37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1361676571733423E-2</v>
+      </c>
+      <c r="R40">
+        <f>R37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1164987073222183E-2</v>
+      </c>
+      <c r="S40">
+        <f>S37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1421923194918336E-2</v>
+      </c>
+      <c r="T40">
+        <f>T37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.0558518939661918E-2</v>
+      </c>
+      <c r="U40">
+        <f>U37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1090325017867695E-2</v>
+      </c>
+      <c r="V40">
+        <f>V37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.3414680180667129E-2</v>
+      </c>
+      <c r="W40">
+        <f>W37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.0716053990130228E-2</v>
+      </c>
+      <c r="X40">
+        <f>X37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.2709590488769133E-2</v>
+      </c>
+      <c r="Y40">
+        <f>Y37-1.645*SQRT(CQ42/40)</f>
+        <v>-4.1592885924297565E-2</v>
+      </c>
+      <c r="Z40">
+        <f>Z37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.2304425058962659E-2</v>
+      </c>
+      <c r="AA40">
+        <f>AA37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1020072480165625E-2</v>
+      </c>
+      <c r="AB40">
+        <f>AB37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1644473562001389E-2</v>
+      </c>
+      <c r="AC40">
+        <f>AC37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.0168858124682833E-2</v>
+      </c>
+      <c r="AD40">
+        <f>AD37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1532394479101895E-2</v>
+      </c>
+      <c r="AE40">
+        <f>AE37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.1141958484746282E-2</v>
+      </c>
+      <c r="AF40">
+        <f>AF37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.3115681816328159E-2</v>
+      </c>
+      <c r="AG40">
+        <f>AG37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.0584256062976448E-2</v>
+      </c>
+      <c r="AH40">
+        <f>AH37-1.645*SQRT(CQ42/40)</f>
+        <v>-3.0721014166171637E-2</v>
+      </c>
       <c r="CQ40" s="3">
         <f>SUM(D38:AH38)+CQ39</f>
         <v>16.987932949553805</v>
@@ -27310,12 +27650,258 @@
       </c>
     </row>
     <row r="41" spans="2:96" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <f>D37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1753905890108083E-2</v>
+      </c>
+      <c r="E41">
+        <f>E37+1.645*SQRT(CQ42/40)</f>
+        <v>2.7641106772564775E-2</v>
+      </c>
+      <c r="F41">
+        <f>F37+1.645*SQRT(CQ42/40)</f>
+        <v>0.22493658295541458</v>
+      </c>
+      <c r="G41">
+        <f>G37+1.645*SQRT(CQ42/40)</f>
+        <v>-5.2088292357866356E-2</v>
+      </c>
+      <c r="H41">
+        <f>H37+1.645*SQRT(CQ42/40)</f>
+        <v>3.0918652640054813E-2</v>
+      </c>
+      <c r="I41">
+        <f>I37+1.645*SQRT(CQ42/40)</f>
+        <v>3.2111599508758054E-2</v>
+      </c>
+      <c r="J41">
+        <f>J37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1805656163922807E-2</v>
+      </c>
+      <c r="K41">
+        <f>K37+1.645*SQRT(CQ42/40)</f>
+        <v>3.0043437267411821E-2</v>
+      </c>
+      <c r="L41">
+        <f>L37+1.645*SQRT(CQ42/40)</f>
+        <v>3.2342812635916894E-2</v>
+      </c>
+      <c r="M41">
+        <f>M37+1.645*SQRT(CQ42/40)</f>
+        <v>3.0424045695001511E-2</v>
+      </c>
+      <c r="N41">
+        <f>N37+1.645*SQRT(CQ42/40)</f>
+        <v>2.1375041315326592E-2</v>
+      </c>
+      <c r="O41">
+        <f>O37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1820501776228929E-2</v>
+      </c>
+      <c r="P41">
+        <f>P37+1.645*SQRT(CQ42/40)</f>
+        <v>-5.0869530645324068E-2</v>
+      </c>
+      <c r="Q41">
+        <f>Q37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1935136842139049E-2</v>
+      </c>
+      <c r="R41">
+        <f>R37+1.645*SQRT(CQ42/40)</f>
+        <v>3.2131826340650288E-2</v>
+      </c>
+      <c r="S41">
+        <f>S37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1874890218954136E-2</v>
+      </c>
+      <c r="T41">
+        <f>T37+1.645*SQRT(CQ42/40)</f>
+        <v>3.2738294474210554E-2</v>
+      </c>
+      <c r="U41">
+        <f>U37+1.645*SQRT(CQ42/40)</f>
+        <v>3.2206488396004776E-2</v>
+      </c>
+      <c r="V41">
+        <f>V37+1.645*SQRT(CQ42/40)</f>
+        <v>2.9882133233205342E-2</v>
+      </c>
+      <c r="W41">
+        <f>W37+1.645*SQRT(CQ42/40)</f>
+        <v>3.2580759423742243E-2</v>
+      </c>
+      <c r="X41">
+        <f>X37+1.645*SQRT(CQ42/40)</f>
+        <v>3.0587222925103338E-2</v>
+      </c>
+      <c r="Y41">
+        <f>Y37+1.645*SQRT(CQ42/40)</f>
+        <v>2.1703927489574903E-2</v>
+      </c>
+      <c r="Z41">
+        <f>Z37+1.645*SQRT(CQ42/40)</f>
+        <v>3.0992388354909813E-2</v>
+      </c>
+      <c r="AA41">
+        <f>AA37+1.645*SQRT(CQ42/40)</f>
+        <v>3.2276740933706846E-2</v>
+      </c>
+      <c r="AB41">
+        <f>AB37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1652339851871082E-2</v>
+      </c>
+      <c r="AC41">
+        <f>AC37+1.645*SQRT(CQ42/40)</f>
+        <v>3.3127955289189638E-2</v>
+      </c>
+      <c r="AD41">
+        <f>AD37+1.645*SQRT(CQ42/40)</f>
+        <v>3.1764418934770576E-2</v>
+      </c>
+      <c r="AE41">
+        <f>AE37+1.645*SQRT(CQ42/40)</f>
+        <v>3.2154854929126189E-2</v>
+      </c>
+      <c r="AF41">
+        <f>AF37+1.645*SQRT(CQ42/40)</f>
+        <v>3.0181131597544313E-2</v>
+      </c>
+      <c r="AG41">
+        <f>AG37+1.645*SQRT(CQ42/40)</f>
+        <v>3.2712557350896024E-2</v>
+      </c>
+      <c r="AH41">
+        <f>AH37+1.645*SQRT(CQ42/40)</f>
+        <v>3.2575799247700835E-2</v>
+      </c>
       <c r="CQ41" s="4">
         <f>CQ39*100/CQ40</f>
         <v>3.1375730883111941</v>
       </c>
       <c r="CR41" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="2:96" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J42" t="s">
+        <v>124</v>
+      </c>
+      <c r="K42" t="s">
+        <v>124</v>
+      </c>
+      <c r="L42" t="s">
+        <v>124</v>
+      </c>
+      <c r="M42" t="s">
+        <v>124</v>
+      </c>
+      <c r="N42" t="s">
+        <v>127</v>
+      </c>
+      <c r="O42" t="s">
+        <v>124</v>
+      </c>
+      <c r="P42" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>124</v>
+      </c>
+      <c r="R42" t="s">
+        <v>124</v>
+      </c>
+      <c r="S42" t="s">
+        <v>124</v>
+      </c>
+      <c r="T42" t="s">
+        <v>124</v>
+      </c>
+      <c r="U42" t="s">
+        <v>124</v>
+      </c>
+      <c r="V42" t="s">
+        <v>124</v>
+      </c>
+      <c r="W42" t="s">
+        <v>124</v>
+      </c>
+      <c r="X42" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ42">
+        <f>CQ39/(4*9)</f>
+        <v>1.4805800346820839E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:96" x14ac:dyDescent="0.3">
+      <c r="CQ44">
+        <f>CQ39-1.645*SQRT(CQ42/40)</f>
+        <v>0.50136040577861396</v>
+      </c>
+    </row>
+    <row r="45" spans="2:96" x14ac:dyDescent="0.3">
+      <c r="CQ45">
+        <f>CQ39+1.645*SQRT(CQ42/40)</f>
+        <v>0.56465721919248646</v>
+      </c>
+    </row>
+    <row r="46" spans="2:96" x14ac:dyDescent="0.3">
+      <c r="CQ46" t="s">
+        <v>128</v>
+      </c>
+      <c r="CR46" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="2:96" x14ac:dyDescent="0.3">
@@ -27364,8 +27950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2659474B-D8A9-4F12-8A1D-367A98E9BEEE}">
   <dimension ref="A1:Q961"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/analysis/analisiFattoriale-tmkX/Analisi Fattoriale 5 fattori 30 ripetizioni lognormal.xlsx
+++ b/analysis/analisiFattoriale-tmkX/Analisi Fattoriale 5 fattori 30 ripetizioni lognormal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaiaa\Documents\GitHub\PECSNproject\analysis\analisiFattoriale-tmkX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DC4092-0254-47E2-9B61-ACC978B2BDE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FFF2AC-4443-46F0-B7C7-7AA010DB3C22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53939FEB-449D-4043-99E8-6814644AB238}"/>
   </bookViews>
@@ -14892,8 +14892,8 @@
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="188065" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CasellaDiTesto 4">
@@ -14935,6 +14935,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -14944,7 +14945,7 @@
                     <m:sSubSup>
                       <m:sSubSupPr>
                         <m:ctrlPr>
-                          <a:rPr lang="it-IT" sz="1100">
+                          <a:rPr lang="it-IT" sz="1100" i="1">
                             <a:solidFill>
                               <a:srgbClr val="836967"/>
                             </a:solidFill>
@@ -14985,7 +14986,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CasellaDiTesto 4">
@@ -15049,6 +15050,347 @@
                 <a:t>𝑒^2</a:t>
               </a:r>
               <a:endParaRPr lang="it-IT" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="408830" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CasellaDiTesto 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9A71B9-5442-45AA-B074-6FDFD57EAB47}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="95250" y="3750469"/>
+              <a:ext cx="408830" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="it-IT" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝛼</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t>=0,10</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CasellaDiTesto 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9A71B9-5442-45AA-B074-6FDFD57EAB47}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="95250" y="3750469"/>
+              <a:ext cx="408830" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t>=0,10</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="741046" cy="237244"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="CasellaDiTesto 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E512E8C-1EDF-443C-B163-84B89E515FAF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="35719" y="3952875"/>
+              <a:ext cx="741046" cy="237244"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="it-IT" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="836967"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="it-IT" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑡</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="it-IT" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:srgbClr val="836967"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:r>
+                            <a:rPr lang="it-IT" sz="1100" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝛼</m:t>
+                          </m:r>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="it-IT" sz="1100" i="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t> =1,645</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="CasellaDiTesto 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E512E8C-1EDF-443C-B163-84B89E515FAF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="35719" y="3952875"/>
+              <a:ext cx="741046" cy="237244"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t> =1,645</a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -15440,7 +15782,7 @@
   <dimension ref="A1:CR49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
